--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="8985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>TrendWords</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WorkbookPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Output\TrendWords.xlsx</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -389,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -458,7 +466,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z934"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
